--- a/F_dataset/ChEMBL/IRAK4/IRAK4_preprocessing/IRAK4_g1.xlsx
+++ b/F_dataset/ChEMBL/IRAK4/IRAK4_preprocessing/IRAK4_g1.xlsx
@@ -660,7 +660,7 @@
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D1B3CC3610&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D78F27F7D0&gt;</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
@@ -773,7 +773,7 @@
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D1B3CC38B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D78F27F3E0&gt;</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
@@ -886,7 +886,7 @@
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D1B3CC3680&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D78F27F8B0&gt;</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
@@ -999,7 +999,7 @@
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D1B3CC3760&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D78F27F920&gt;</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
@@ -1108,7 +1108,7 @@
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D1B3CC3A00&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D78F27FA70&gt;</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
@@ -1221,7 +1221,7 @@
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D1B3CC3A70&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D78F27FAE0&gt;</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
@@ -1334,7 +1334,7 @@
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D1B3CC3AE0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D78F27FB50&gt;</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
@@ -1447,7 +1447,7 @@
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D1B3CC3B50&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D78F27FBC0&gt;</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
@@ -1560,7 +1560,7 @@
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D1B3CC3BC0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D78F27FC30&gt;</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
@@ -1673,7 +1673,7 @@
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D1B3CC3C30&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D78F27FCA0&gt;</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
@@ -1786,7 +1786,7 @@
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D1B3CC3CA0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D78F27FD10&gt;</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
@@ -1903,7 +1903,7 @@
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D1B3CC3D10&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D78F27FD80&gt;</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
@@ -2016,7 +2016,7 @@
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D1B3CC3D80&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D78F27FDF0&gt;</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
@@ -2129,7 +2129,7 @@
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D1B3CC3DF0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D78F27FE60&gt;</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
@@ -2242,7 +2242,7 @@
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D1B3CC3E60&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D78F27FED0&gt;</t>
         </is>
       </c>
       <c r="Y16" t="inlineStr">
@@ -2351,7 +2351,7 @@
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D1B3CC3ED0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D78F27FF40&gt;</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
@@ -2464,7 +2464,7 @@
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D1B3CC3F40&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D78F2E0040&gt;</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
@@ -2573,7 +2573,7 @@
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D1B3CFC040&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D78F2E00B0&gt;</t>
         </is>
       </c>
       <c r="Y19" t="inlineStr">
@@ -2686,7 +2686,7 @@
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D1B3CFC0B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D78F2E0120&gt;</t>
         </is>
       </c>
       <c r="Y20" t="inlineStr">
@@ -2799,7 +2799,7 @@
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D1B3CFC120&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D78F2E0190&gt;</t>
         </is>
       </c>
       <c r="Y21" t="inlineStr">
@@ -2912,7 +2912,7 @@
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D1B3CFC190&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D78F2E0200&gt;</t>
         </is>
       </c>
       <c r="Y22" t="inlineStr">
@@ -3025,7 +3025,7 @@
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D1B3CFC200&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D78F2E0270&gt;</t>
         </is>
       </c>
       <c r="Y23" t="inlineStr">
@@ -3138,7 +3138,7 @@
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D1B3CFC270&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D78F2E02E0&gt;</t>
         </is>
       </c>
       <c r="Y24" t="inlineStr">
@@ -3251,7 +3251,7 @@
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D1B3CFC2E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D78F2E0350&gt;</t>
         </is>
       </c>
       <c r="Y25" t="inlineStr">
@@ -3368,7 +3368,7 @@
       </c>
       <c r="X26" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D1B3CFC350&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D78F2E03C0&gt;</t>
         </is>
       </c>
       <c r="Y26" t="inlineStr">
@@ -3477,7 +3477,7 @@
       </c>
       <c r="X27" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D1B3CFC3C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D78F2E0430&gt;</t>
         </is>
       </c>
       <c r="Y27" t="inlineStr">
@@ -3586,7 +3586,7 @@
       </c>
       <c r="X28" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D1B3CFC430&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D78F2E04A0&gt;</t>
         </is>
       </c>
       <c r="Y28" t="inlineStr">
@@ -3695,7 +3695,7 @@
       </c>
       <c r="X29" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D1B3CFC4A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D78F2E0510&gt;</t>
         </is>
       </c>
       <c r="Y29" t="inlineStr">
@@ -3808,7 +3808,7 @@
       </c>
       <c r="X30" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D1B3CFC510&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D78F2E0580&gt;</t>
         </is>
       </c>
       <c r="Y30" t="inlineStr">
@@ -3921,7 +3921,7 @@
       </c>
       <c r="X31" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D1B3CFC580&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D78F2E05F0&gt;</t>
         </is>
       </c>
       <c r="Y31" t="inlineStr">
@@ -4034,7 +4034,7 @@
       </c>
       <c r="X32" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D1B3CFC5F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D78F2E0660&gt;</t>
         </is>
       </c>
       <c r="Y32" t="inlineStr">
@@ -4143,7 +4143,7 @@
       </c>
       <c r="X33" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D1B3CFC660&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D78F2E06D0&gt;</t>
         </is>
       </c>
       <c r="Y33" t="inlineStr">
@@ -4256,7 +4256,7 @@
       </c>
       <c r="X34" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D1B3CFC6D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D78F2E0740&gt;</t>
         </is>
       </c>
       <c r="Y34" t="inlineStr">
@@ -4369,7 +4369,7 @@
       </c>
       <c r="X35" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D1B3CFC740&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D78F2E07B0&gt;</t>
         </is>
       </c>
       <c r="Y35" t="inlineStr">
@@ -4482,7 +4482,7 @@
       </c>
       <c r="X36" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D1B3CFC7B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D78F2E0820&gt;</t>
         </is>
       </c>
       <c r="Y36" t="inlineStr">
@@ -4595,7 +4595,7 @@
       </c>
       <c r="X37" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D1B3CFC820&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D78F2E0890&gt;</t>
         </is>
       </c>
       <c r="Y37" t="inlineStr">
@@ -4704,7 +4704,7 @@
       </c>
       <c r="X38" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D1B3CFC890&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D78F2E0900&gt;</t>
         </is>
       </c>
       <c r="Y38" t="inlineStr">
@@ -4817,7 +4817,7 @@
       </c>
       <c r="X39" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D1B3CFC900&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D78F2E0970&gt;</t>
         </is>
       </c>
       <c r="Y39" t="inlineStr">
@@ -4926,7 +4926,7 @@
       </c>
       <c r="X40" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D1B3CFC970&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D78F2E09E0&gt;</t>
         </is>
       </c>
       <c r="Y40" t="inlineStr">
@@ -5039,7 +5039,7 @@
       </c>
       <c r="X41" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D1B3CFC9E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D78F2E0A50&gt;</t>
         </is>
       </c>
       <c r="Y41" t="inlineStr">
@@ -5152,7 +5152,7 @@
       </c>
       <c r="X42" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D1B3CFCA50&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D78F2E0AC0&gt;</t>
         </is>
       </c>
       <c r="Y42" t="inlineStr">
@@ -5265,7 +5265,7 @@
       </c>
       <c r="X43" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D1B3CFCAC0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D78F2E0B30&gt;</t>
         </is>
       </c>
       <c r="Y43" t="inlineStr">
@@ -5374,7 +5374,7 @@
       </c>
       <c r="X44" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D1B3CFCB30&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D78F2E0BA0&gt;</t>
         </is>
       </c>
       <c r="Y44" t="inlineStr">
@@ -5487,7 +5487,7 @@
       </c>
       <c r="X45" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D1B3CFCBA0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D78F2E0C10&gt;</t>
         </is>
       </c>
       <c r="Y45" t="inlineStr">
@@ -5600,7 +5600,7 @@
       </c>
       <c r="X46" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D1B3CFCC10&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D78F2E0C80&gt;</t>
         </is>
       </c>
       <c r="Y46" t="inlineStr">
@@ -5709,7 +5709,7 @@
       </c>
       <c r="X47" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D1B3CFCC80&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D78F2E0CF0&gt;</t>
         </is>
       </c>
       <c r="Y47" t="inlineStr">
@@ -5822,7 +5822,7 @@
       </c>
       <c r="X48" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D1B3CFCCF0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D78F2E0D60&gt;</t>
         </is>
       </c>
       <c r="Y48" t="inlineStr">
@@ -5935,7 +5935,7 @@
       </c>
       <c r="X49" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D1B3CFCD60&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D78F2E0DD0&gt;</t>
         </is>
       </c>
       <c r="Y49" t="inlineStr">
@@ -6048,7 +6048,7 @@
       </c>
       <c r="X50" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D1B3CFCDD0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D78F2E0E40&gt;</t>
         </is>
       </c>
       <c r="Y50" t="inlineStr">
@@ -6161,7 +6161,7 @@
       </c>
       <c r="X51" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D1B3CFCE40&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D78F2E0EB0&gt;</t>
         </is>
       </c>
       <c r="Y51" t="inlineStr">
